--- a/biology/Zoologie/Chaohusaurus/Chaohusaurus.xlsx
+++ b/biology/Zoologie/Chaohusaurus/Chaohusaurus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chaohusaurus geishanesis
 Chaohusaurus geishanesis est une espèce éteinte d'ichthyosaures primitifs qui a vécu durant le Trias inférieur (étage Olénékien) il y a environ entre 251,3 et 247,2 Ma (millions d'années).
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Chaohusaurus est une forme primitive d'ichthyosaures mesurant de 50 cm à 2 m pour environ 10-45 kg. Il ne possédait pas d'aileron dorsal et la nageoire caudale n'était pas encore développée.
 Il possédait également une colonne vertébrale étroite et ondulait comme une anguille, ce qui demande plus d'oxygène que le simple mouvement de queue latéral des ichtyosaures plus tardifs, qui possédaient des vertèbres rigides.
